--- a/data/trans_dic/P64D$noloshace_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P64D$noloshace_2023-Provincia-trans_dic.xlsx
@@ -584,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.009625006225415388</v>
+        <v>0.006872792442675335</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.006695323438749728</v>
+        <v>0.006843388832637023</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0743079217525231</v>
+        <v>0.05812168584044043</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05101814860990182</v>
+        <v>0.04843332350641843</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04876886508258043</v>
+        <v>0.05202708810872174</v>
       </c>
     </row>
     <row r="7">
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004071484808406626</v>
+        <v>0.004071333432424613</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005018786921305551</v>
+        <v>0.003582488643614032</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04276153574463074</v>
+        <v>0.04665455795083207</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03412611994441808</v>
+        <v>0.0353817367516576</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03308731596835627</v>
+        <v>0.02927518994470062</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.0157502014693286</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.01509773140919012</v>
+        <v>0.01509773140919013</v>
       </c>
     </row>
     <row r="11">
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004804044683000858</v>
+        <v>0.0048696597605419</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.00482023782620821</v>
+        <v>0.004785912610701139</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05092839266764362</v>
+        <v>0.04810744597286138</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04335084070899349</v>
+        <v>0.04853465127326795</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03616231386941365</v>
+        <v>0.03298581822845207</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04589327218490343</v>
+        <v>0.04437790950248512</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01748246095286218</v>
+        <v>0.01881039481002087</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03812737110603921</v>
+        <v>0.03852626183126397</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1500086673222966</v>
+        <v>0.1541521119644633</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06531165013261972</v>
+        <v>0.06743805547266921</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0975189733404916</v>
+        <v>0.1007096202896586</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.02569279233868089</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.02297693657422243</v>
+        <v>0.02297693657422242</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.02442475217399348</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.005486986827253929</v>
+        <v>0.0054911378247162</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.007338393649969537</v>
+        <v>0.00732245957285224</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0104885929221883</v>
+        <v>0.01123243068725833</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07095766046638256</v>
+        <v>0.07496158312703936</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05631361813772122</v>
+        <v>0.05327673318878545</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04814596245807555</v>
+        <v>0.05256643774571356</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.07801308804905528</v>
+        <v>0.07801308804905527</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.07019745090544034</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.07424238470850171</v>
+        <v>0.07424238470850172</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0520249308749138</v>
+        <v>0.04925112923528004</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0473199787268193</v>
+        <v>0.04554737679190882</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05784474563975473</v>
+        <v>0.0550048550203837</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1120598799349106</v>
+        <v>0.1116346943693183</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1023391313061393</v>
+        <v>0.09798277674467872</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.09763778337052194</v>
+        <v>0.09958488373262991</v>
       </c>
     </row>
     <row r="25">
@@ -940,7 +940,7 @@
         <v>0.05571062234295995</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.06751140061800935</v>
+        <v>0.06751140061800937</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.06052391072514372</v>
@@ -954,13 +954,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.03592318167957644</v>
+        <v>0.03393865215301078</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.04534507780900771</v>
+        <v>0.04699966100151066</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0454051142810119</v>
+        <v>0.04456341037156761</v>
       </c>
     </row>
     <row r="27">
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0824322041133554</v>
+        <v>0.08097732788034048</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.09802074819169122</v>
+        <v>0.1002276154417427</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0802250299318238</v>
+        <v>0.07829253357681193</v>
       </c>
     </row>
     <row r="28">
@@ -998,7 +998,7 @@
         <v>0.04183278929682718</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.04321887430455593</v>
+        <v>0.04321887430455594</v>
       </c>
     </row>
     <row r="29">
@@ -1009,13 +1009,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.03392743544253445</v>
+        <v>0.03463674093350086</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.03316177841410457</v>
+        <v>0.03345011247294787</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.03648901087498931</v>
+        <v>0.03579282339505137</v>
       </c>
     </row>
     <row r="30">
@@ -1026,13 +1026,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.05563770970534094</v>
+        <v>0.05600292724096193</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.05225509522088002</v>
+        <v>0.05265460849604842</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.0510207694452686</v>
+        <v>0.05114058933342541</v>
       </c>
     </row>
     <row r="31">
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1456</v>
+        <v>1040</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2340</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="7">
@@ -1195,13 +1195,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14732</v>
+        <v>11523</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7718</v>
+        <v>7327</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>17046</v>
+        <v>18185</v>
       </c>
     </row>
     <row r="8">
@@ -1256,7 +1256,7 @@
         <v>692</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2111</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="11">
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10723</v>
+        <v>11699</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5800</v>
+        <v>6013</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>13920</v>
+        <v>12317</v>
       </c>
     </row>
     <row r="12">
@@ -1325,10 +1325,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1295</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="15">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7553</v>
+        <v>7134</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5215</v>
+        <v>5839</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9713</v>
+        <v>8860</v>
       </c>
     </row>
     <row r="16">
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9550</v>
+        <v>9235</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3119</v>
+        <v>3356</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14737</v>
+        <v>14891</v>
       </c>
     </row>
     <row r="19">
@@ -1411,13 +1411,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>31215</v>
+        <v>32077</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11654</v>
+        <v>12033</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>37693</v>
+        <v>38926</v>
       </c>
     </row>
     <row r="20">
@@ -1469,10 +1469,10 @@
         <v>738</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2646</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="23">
@@ -1483,13 +1483,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>9542</v>
+        <v>10081</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>6633</v>
+        <v>6275</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>12145</v>
+        <v>13261</v>
       </c>
     </row>
     <row r="24">
@@ -1598,13 +1598,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>19893</v>
+        <v>18833</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>16867</v>
+        <v>16236</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>42738</v>
+        <v>40639</v>
       </c>
     </row>
     <row r="31">
@@ -1615,13 +1615,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>42849</v>
+        <v>42687</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>36479</v>
+        <v>34926</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>72138</v>
+        <v>73577</v>
       </c>
     </row>
     <row r="32">
@@ -1670,13 +1670,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>16215</v>
+        <v>15320</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>14100</v>
+        <v>14614</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>34614</v>
+        <v>33972</v>
       </c>
     </row>
     <row r="35">
@@ -1687,13 +1687,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>37209</v>
+        <v>36552</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>30478</v>
+        <v>31165</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>61158</v>
+        <v>59685</v>
       </c>
     </row>
     <row r="36">
@@ -1742,13 +1742,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>64740</v>
+        <v>66094</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>49463</v>
+        <v>49893</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>124054</v>
+        <v>121687</v>
       </c>
     </row>
     <row r="39">
@@ -1759,13 +1759,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>106167</v>
+        <v>106864</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>77943</v>
+        <v>78539</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>173459</v>
+        <v>173866</v>
       </c>
     </row>
     <row r="40">
